--- a/reports/contracts/files/expense.xlsx
+++ b/reports/contracts/files/expense.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="TDSheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" refMode="R1C1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -5769,8 +5769,8 @@
   </sheetPr>
   <dimension ref="A1:AE341"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="AE7" sqref="AE7"/>
+    <sheetView tabSelected="1" topLeftCell="R73" workbookViewId="0">
+      <selection activeCell="AE116" sqref="AE116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -15113,10 +15113,10 @@
         <v>47</v>
       </c>
       <c r="AD115" s="5">
-        <v>164966707.43000001</v>
+        <v>9000</v>
       </c>
       <c r="AE115" s="5">
-        <v>164966707.43000001</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="116" spans="1:31" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">

--- a/reports/contracts/files/expense.xlsx
+++ b/reports/contracts/files/expense.xlsx
@@ -14619,13 +14619,13 @@
         <v>32</v>
       </c>
       <c r="E93" s="5" t="n">
-        <v>-67020</v>
+        <v>-67120</v>
       </c>
       <c r="F93" s="5" t="n">
         <v>15480</v>
       </c>
       <c r="G93" s="6" t="n">
-        <v>437229.03</v>
+        <v>437329.03</v>
       </c>
       <c r="H93" s="4" t="e"/>
       <c r="I93" s="5" t="n">
@@ -14635,7 +14635,7 @@
         <v>348959.03</v>
       </c>
       <c r="K93" s="5" t="n">
-        <v>82500</v>
+        <v>82600</v>
       </c>
       <c r="L93" s="6" t="n">
         <v>354729.03</v>
@@ -20536,23 +20536,23 @@
         <v>32</v>
       </c>
       <c r="E160" s="6" t="n">
-        <v>27995248.41</v>
+        <v>27978855.09</v>
       </c>
       <c r="F160" s="7" t="n">
         <v>28160913.4</v>
       </c>
       <c r="G160" s="6" t="n">
-        <v>688195.83</v>
+        <v>704589.15</v>
       </c>
       <c r="H160" s="4" t="e"/>
       <c r="I160" s="5" t="n">
-        <v>2234200</v>
+        <v>2384200</v>
       </c>
       <c r="J160" s="5" t="n">
         <v>26857137</v>
       </c>
       <c r="K160" s="6" t="n">
-        <v>165664.99</v>
+        <v>182058.31</v>
       </c>
       <c r="L160" s="6" t="n">
         <v>522530.84</v>
@@ -22474,19 +22474,19 @@
         <v>32</v>
       </c>
       <c r="E182" s="5" t="n">
-        <v>-150000</v>
+        <v>-300000</v>
       </c>
       <c r="F182" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G182" s="5" t="n">
-        <v>150000</v>
+        <v>300000</v>
       </c>
       <c r="H182" s="4" t="e"/>
       <c r="I182" s="4" t="e"/>
       <c r="J182" s="4" t="e"/>
       <c r="K182" s="5" t="n">
-        <v>150000</v>
+        <v>300000</v>
       </c>
       <c r="L182" s="4" t="e"/>
       <c r="M182" s="3" t="n">
@@ -34374,7 +34374,7 @@
       <c r="G316" s="4" t="e"/>
       <c r="H316" s="4" t="e"/>
       <c r="I316" s="6" t="n">
-        <v>17169230.88</v>
+        <v>20613446.16</v>
       </c>
       <c r="J316" s="4" t="e"/>
       <c r="K316" s="4" t="e"/>
@@ -38394,13 +38394,13 @@
         <v>32</v>
       </c>
       <c r="E362" s="5" t="n">
-        <v>-10143</v>
+        <v>-13099</v>
       </c>
       <c r="F362" s="5" t="n">
         <v>1150</v>
       </c>
       <c r="G362" s="5" t="n">
-        <v>11293</v>
+        <v>14249</v>
       </c>
       <c r="H362" s="4" t="e"/>
       <c r="I362" s="5" t="n">
@@ -38408,7 +38408,7 @@
       </c>
       <c r="J362" s="4" t="e"/>
       <c r="K362" s="5" t="n">
-        <v>11293</v>
+        <v>14249</v>
       </c>
       <c r="L362" s="4" t="e"/>
       <c r="M362" s="5" t="n">
@@ -41753,8 +41753,8 @@
         <v>21702976.12</v>
       </c>
       <c r="H400" s="4" t="e"/>
-      <c r="I400" s="7" t="n">
-        <v>12766553.6</v>
+      <c r="I400" s="6" t="n">
+        <v>14041358.96</v>
       </c>
       <c r="J400" s="6" t="n">
         <v>7661617.16</v>
@@ -42219,7 +42219,7 @@
       </c>
       <c r="H405" s="4" t="e"/>
       <c r="I405" s="6" t="n">
-        <v>637269.45</v>
+        <v>671460.48</v>
       </c>
       <c r="J405" s="6" t="n">
         <v>77717.01</v>
@@ -42670,7 +42670,7 @@
       </c>
       <c r="H410" s="4" t="e"/>
       <c r="I410" s="6" t="n">
-        <v>147265.96</v>
+        <v>158857.96</v>
       </c>
       <c r="J410" s="5" t="n">
         <v>16638</v>
